--- a/Excel/表1油区.xlsx
+++ b/Excel/表1油区.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\数据\自己整理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0DB003-4F86-4D4F-89E7-9A09CC3AD9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0540C294-6F28-44C5-A768-DC8DB2661A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="表1-1 工区边界坐标" sheetId="1" r:id="rId1"/>
-    <sheet name="表1-2 井位数据" sheetId="2" r:id="rId2"/>
-    <sheet name="表1-3 小层分层数据表" sheetId="3" r:id="rId3"/>
+    <sheet name="表1-1工区边界坐标" sheetId="1" r:id="rId1"/>
+    <sheet name="表1-2井位数据" sheetId="2" r:id="rId2"/>
+    <sheet name="表1-3小层分层数据表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="42">
   <si>
     <r>
       <rPr>
@@ -54,6 +54,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>（</t>
     </r>
@@ -71,6 +73,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
@@ -186,6 +190,8 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>图</t>
     </r>
@@ -203,6 +209,8 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>油藏剖面示意图（示例）</t>
     </r>
@@ -216,6 +224,8 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>图</t>
     </r>
@@ -233,16 +243,30 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>顶深构造等值线图（示例）</t>
     </r>
+  </si>
+  <si>
+    <t>X-grid</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y-grid</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y-inverse</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,21 +278,29 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="7.5"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="7.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -286,16 +318,22 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -306,12 +344,16 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -321,6 +363,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -401,7 +451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,6 +524,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,21 +558,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,15 +634,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>8255</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>455930</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>29845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1022,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1072,10 +1131,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1086,16 +1145,16 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="28">
+      <c r="A7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="24">
         <v>0</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="24">
         <v>0</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="24">
         <v>0</v>
       </c>
       <c r="E7" s="8">
@@ -1104,16 +1163,16 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="24">
         <v>0</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="24">
         <v>1650</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="24">
         <v>0</v>
       </c>
       <c r="E8" s="8">
@@ -1122,16 +1181,16 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="24">
         <v>3200</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="24">
         <v>1650</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="24">
         <v>3200</v>
       </c>
       <c r="E9" s="8">
@@ -1140,16 +1199,16 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="24">
         <v>3200</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="24">
         <v>0</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="24">
         <v>3200</v>
       </c>
       <c r="E10" s="8">
@@ -1175,19 +1234,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1209,8 +1270,17 @@
       <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1230,11 +1300,23 @@
         <v>1590</v>
       </c>
       <c r="G2" s="3">
-        <f>1650-D2</f>
+        <f t="shared" ref="G2:G10" si="0">1650-D2</f>
         <v>205</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H2" s="30">
+        <f t="shared" ref="H2:H10" si="1">C2/50</f>
+        <v>31.8</v>
+      </c>
+      <c r="I2" s="30">
+        <f t="shared" ref="I2:I10" si="2">D2/50</f>
+        <v>28.9</v>
+      </c>
+      <c r="J2" s="30">
+        <f t="shared" ref="J2:J10" si="3">G2/50</f>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1254,11 +1336,23 @@
         <v>2700</v>
       </c>
       <c r="G3" s="3">
-        <f>1650-D3</f>
+        <f t="shared" si="0"/>
         <v>895</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H3" s="30">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="I3" s="30">
+        <f t="shared" si="2"/>
+        <v>15.1</v>
+      </c>
+      <c r="J3" s="30">
+        <f t="shared" si="3"/>
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1278,17 +1372,23 @@
         <v>1510</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G10" si="0">1650-D4</f>
+        <f t="shared" si="0"/>
         <v>915</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H4" s="30">
+        <f t="shared" si="1"/>
+        <v>30.2</v>
+      </c>
+      <c r="I4" s="30">
+        <f t="shared" si="2"/>
+        <v>14.7</v>
+      </c>
+      <c r="J4" s="30">
+        <f t="shared" si="3"/>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1311,8 +1411,26 @@
         <f t="shared" si="0"/>
         <v>895</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H5" s="30">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I5" s="30">
+        <f t="shared" si="2"/>
+        <v>15.1</v>
+      </c>
+      <c r="J5" s="30">
+        <f t="shared" si="3"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1335,8 +1453,20 @@
         <f t="shared" si="0"/>
         <v>1455</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H6" s="30">
+        <f t="shared" si="1"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I6" s="30">
+        <f t="shared" si="2"/>
+        <v>3.9</v>
+      </c>
+      <c r="J6" s="30">
+        <f t="shared" si="3"/>
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1359,8 +1489,20 @@
         <f t="shared" si="0"/>
         <v>1525</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H7" s="30">
+        <f t="shared" si="1"/>
+        <v>60.64</v>
+      </c>
+      <c r="I7" s="30">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="J7" s="30">
+        <f t="shared" si="3"/>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1383,8 +1525,20 @@
         <f t="shared" si="0"/>
         <v>1515</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H8" s="30">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="30">
+        <f t="shared" si="2"/>
+        <v>2.7</v>
+      </c>
+      <c r="J8" s="30">
+        <f t="shared" si="3"/>
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1407,8 +1561,20 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H9" s="30">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="I9" s="30">
+        <f t="shared" si="2"/>
+        <v>29.4</v>
+      </c>
+      <c r="J9" s="30">
+        <f t="shared" si="3"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1431,12 +1597,24 @@
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-    </row>
-    <row r="17" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="P17" s="18" t="s">
+      <c r="H10" s="30">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I10" s="30">
+        <f t="shared" si="2"/>
+        <v>29.88</v>
+      </c>
+      <c r="J10" s="30">
+        <f t="shared" si="3"/>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="18" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1453,37 +1631,37 @@
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1826,18 +2004,18 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
       <c r="L13" s="13" t="s">
         <v>4</v>
       </c>
@@ -1846,28 +2024,28 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,18 +2437,18 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
       <c r="L26" s="14" t="s">
         <v>8</v>
       </c>
@@ -2279,31 +2457,31 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
       <c r="O27" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2336,26 +2514,26 @@
       <c r="B29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="33">
         <f>D16-C16</f>
         <v>8</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25">
+      <c r="D29" s="33"/>
+      <c r="E29" s="33">
         <f t="shared" ref="E29:E37" si="9">F16-E16</f>
         <v>8</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25">
+      <c r="F29" s="33"/>
+      <c r="G29" s="33">
         <f t="shared" ref="G29:G37" si="10">H16-G16</f>
         <v>8</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25">
+      <c r="H29" s="33"/>
+      <c r="I29" s="33">
         <f t="shared" ref="I29:I37" si="11">J16-I16</f>
         <v>8</v>
       </c>
-      <c r="J29" s="25"/>
+      <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -2364,26 +2542,26 @@
       <c r="B30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="33">
         <f t="shared" ref="C30:C37" si="12">D17-C17</f>
         <v>8</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25">
+      <c r="D30" s="33"/>
+      <c r="E30" s="33">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25">
+      <c r="F30" s="33"/>
+      <c r="G30" s="33">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25">
+      <c r="H30" s="33"/>
+      <c r="I30" s="33">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="J30" s="25"/>
+      <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -2392,26 +2570,26 @@
       <c r="B31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="33">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25">
+      <c r="D31" s="33"/>
+      <c r="E31" s="33">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25">
+      <c r="F31" s="33"/>
+      <c r="G31" s="33">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25">
+      <c r="H31" s="33"/>
+      <c r="I31" s="33">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="J31" s="25"/>
+      <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
@@ -2420,26 +2598,26 @@
       <c r="B32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="33">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25">
+      <c r="D32" s="33"/>
+      <c r="E32" s="33">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25">
+      <c r="F32" s="33"/>
+      <c r="G32" s="33">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25">
+      <c r="H32" s="33"/>
+      <c r="I32" s="33">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="J32" s="25"/>
+      <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -2448,26 +2626,26 @@
       <c r="B33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="33">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25">
+      <c r="D33" s="33"/>
+      <c r="E33" s="33">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25">
+      <c r="F33" s="33"/>
+      <c r="G33" s="33">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25">
+      <c r="H33" s="33"/>
+      <c r="I33" s="33">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="J33" s="25"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -2476,26 +2654,26 @@
       <c r="B34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="33">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25">
+      <c r="D34" s="33"/>
+      <c r="E34" s="33">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25">
+      <c r="F34" s="33"/>
+      <c r="G34" s="33">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25">
+      <c r="H34" s="33"/>
+      <c r="I34" s="33">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="J34" s="25"/>
+      <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
@@ -2504,26 +2682,26 @@
       <c r="B35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="33">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25">
+      <c r="D35" s="33"/>
+      <c r="E35" s="33">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25">
+      <c r="F35" s="33"/>
+      <c r="G35" s="33">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25">
+      <c r="H35" s="33"/>
+      <c r="I35" s="33">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="J35" s="25"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
@@ -2532,26 +2710,26 @@
       <c r="B36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="33">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25">
+      <c r="F36" s="33"/>
+      <c r="G36" s="33">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25">
+      <c r="H36" s="33"/>
+      <c r="I36" s="33">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="J36" s="25"/>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
@@ -2560,26 +2738,26 @@
       <c r="B37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="33">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25">
+      <c r="F37" s="33"/>
+      <c r="G37" s="33">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25">
+      <c r="H37" s="33"/>
+      <c r="I37" s="33">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="J37" s="25"/>
+      <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
